--- a/website/descriptions.xlsx
+++ b/website/descriptions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PlantClassification\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6997F80E-3EAB-4D63-B216-5B44FD2B0751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C974C3D6-3904-4455-AE6F-64BC3620BF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5940" yWindow="8145" windowWidth="13110" windowHeight="11385" xr2:uid="{FF03166A-267C-4BD3-9B9D-EBFEF5BF06F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF03166A-267C-4BD3-9B9D-EBFEF5BF06F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Scientific name</t>
-  </si>
-  <si>
     <t>Habitat</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>woolly senecio</t>
+  </si>
+  <si>
+    <t>Scientific name</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -684,7 +684,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -703,13 +703,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -717,16 +717,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -734,16 +734,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -751,16 +751,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -768,16 +768,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -785,16 +785,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -802,16 +802,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -819,16 +819,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -836,16 +836,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -853,16 +853,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -870,16 +870,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15">
@@ -887,16 +887,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
@@ -904,16 +904,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15">
@@ -921,16 +921,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
@@ -938,16 +938,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15">
@@ -955,16 +955,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15">
@@ -972,16 +972,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15">
@@ -989,16 +989,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15">
@@ -1006,16 +1006,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15">
@@ -1023,16 +1023,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15">
@@ -1040,16 +1040,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15">
@@ -1057,16 +1057,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15">
@@ -1074,16 +1074,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15">
@@ -1091,16 +1091,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
